--- a/Names_Players.xlsx
+++ b/Names_Players.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,8 +429,76 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>127.6497359275818</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Babi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Babi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>216.3747901916504</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Babi</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fernanda</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Caio</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Babi</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Babi</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Babi</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Gladys</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>215.9085249900818</v>
       </c>
     </row>
   </sheetData>
